--- a/HW#1/student.xlsx
+++ b/HW#1/student.xlsx
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
